--- a/Code/Results/Cases/Case_1_211/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_211/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2690787353635073</v>
+        <v>0.142477488380834</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08572720689582525</v>
+        <v>0.2412187059015309</v>
       </c>
       <c r="E2">
-        <v>0.04975603440126442</v>
+        <v>0.1642394801235838</v>
       </c>
       <c r="F2">
-        <v>0.7893697980760379</v>
+        <v>0.9298502608834838</v>
       </c>
       <c r="G2">
-        <v>0.6319781148465466</v>
+        <v>0.4627726162836439</v>
       </c>
       <c r="H2">
-        <v>0.3699968398214821</v>
+        <v>0.5607971153087448</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04097129573079528</v>
+        <v>0.1528597318075597</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.636032189871415</v>
+        <v>0.6290983407645285</v>
       </c>
       <c r="N2">
-        <v>2.363537191645207</v>
+        <v>1.549373067681017</v>
       </c>
       <c r="O2">
-        <v>2.066634355394569</v>
+        <v>2.002617514970126</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2356351416346456</v>
+        <v>0.1329197786953671</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08526081153019049</v>
+        <v>0.2428608296157826</v>
       </c>
       <c r="E3">
-        <v>0.05148076486673858</v>
+        <v>0.1663019005649122</v>
       </c>
       <c r="F3">
-        <v>0.7118475139008495</v>
+        <v>0.9175535045836938</v>
       </c>
       <c r="G3">
-        <v>0.556241937793871</v>
+        <v>0.4465487433260762</v>
       </c>
       <c r="H3">
-        <v>0.3395763333787158</v>
+        <v>0.5571081219333536</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04400047713300914</v>
+        <v>0.155460469515436</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.425646931193683</v>
+        <v>0.5624023235514954</v>
       </c>
       <c r="N3">
-        <v>2.173172071173809</v>
+        <v>1.490262922841652</v>
       </c>
       <c r="O3">
-        <v>1.842009313484141</v>
+        <v>1.960176423489713</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2152053870811841</v>
+        <v>0.1271170574123914</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.08512231490021804</v>
+        <v>0.2439697654102346</v>
       </c>
       <c r="E4">
-        <v>0.05268628252912944</v>
+        <v>0.1676574136480324</v>
       </c>
       <c r="F4">
-        <v>0.6655263722193041</v>
+        <v>0.9105867110871984</v>
       </c>
       <c r="G4">
-        <v>0.5106558406749286</v>
+        <v>0.4369124299199711</v>
       </c>
       <c r="H4">
-        <v>0.3214680423290304</v>
+        <v>0.5551391235319016</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04603924139164306</v>
+        <v>0.1571572748259129</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.296254858735026</v>
+        <v>0.5213437908738854</v>
       </c>
       <c r="N4">
-        <v>2.057275327521751</v>
+        <v>1.454474915804127</v>
       </c>
       <c r="O4">
-        <v>1.707212259460789</v>
+        <v>1.935414403037356</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2069042278764783</v>
+        <v>0.124769158632688</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.08510177923679052</v>
+        <v>0.2444469962207947</v>
       </c>
       <c r="E5">
-        <v>0.05321298366888172</v>
+        <v>0.1682322057337871</v>
       </c>
       <c r="F5">
-        <v>0.6469474077305932</v>
+        <v>0.9078943358713687</v>
       </c>
       <c r="G5">
-        <v>0.4922884350566363</v>
+        <v>0.4330671917606423</v>
       </c>
       <c r="H5">
-        <v>0.3142224966087497</v>
+        <v>0.5544112227279925</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0469131530385134</v>
+        <v>0.1578738298574756</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.243466143660513</v>
+        <v>0.5045867486813052</v>
       </c>
       <c r="N5">
-        <v>2.010286512706301</v>
+        <v>1.44002040343787</v>
       </c>
       <c r="O5">
-        <v>1.65300198227456</v>
+        <v>1.925649586535371</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2055272215189206</v>
+        <v>0.1243803105060834</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08510050129478586</v>
+        <v>0.2445277704435291</v>
       </c>
       <c r="E6">
-        <v>0.05330254272629453</v>
+        <v>0.1683290025555122</v>
       </c>
       <c r="F6">
-        <v>0.6438796601912244</v>
+        <v>0.9074561243617865</v>
       </c>
       <c r="G6">
-        <v>0.4892505871482058</v>
+        <v>0.4324336195655576</v>
       </c>
       <c r="H6">
-        <v>0.3130271851391342</v>
+        <v>0.5542948549545343</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04706081525144157</v>
+        <v>0.1579943277189955</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.234696796175044</v>
+        <v>0.5018027680710304</v>
       </c>
       <c r="N6">
-        <v>2.002498321346167</v>
+        <v>1.437628122213255</v>
       </c>
       <c r="O6">
-        <v>1.644042100384127</v>
+        <v>1.924047823620128</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2150933398855557</v>
+        <v>0.1270853246820138</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08512189423360184</v>
+        <v>0.2439760989265096</v>
       </c>
       <c r="E7">
-        <v>0.05269324410925336</v>
+        <v>0.1676650747800874</v>
       </c>
       <c r="F7">
-        <v>0.6652746370201896</v>
+        <v>0.9105498070855802</v>
       </c>
       <c r="G7">
-        <v>0.5104073110361043</v>
+        <v>0.4368602413304075</v>
       </c>
       <c r="H7">
-        <v>0.3213697972189635</v>
+        <v>0.5551290051865152</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04605085517903262</v>
+        <v>0.1571668369874288</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.29554318417091</v>
+        <v>0.5211179001866242</v>
       </c>
       <c r="N7">
-        <v>2.056640658614754</v>
+        <v>1.45427945038179</v>
       </c>
       <c r="O7">
-        <v>1.706478326139518</v>
+        <v>1.935281392027406</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2575242758928624</v>
+        <v>0.1391684742673078</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0855349153023468</v>
+        <v>0.2417640274806416</v>
       </c>
       <c r="E8">
-        <v>0.05031944854249204</v>
+        <v>0.1649320847175773</v>
       </c>
       <c r="F8">
-        <v>0.7623600055596143</v>
+        <v>0.9254891943024006</v>
       </c>
       <c r="G8">
-        <v>0.6056610496836328</v>
+        <v>0.4571110378262517</v>
       </c>
       <c r="H8">
-        <v>0.3593835871610054</v>
+        <v>0.5594637221571617</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04197749029013487</v>
+        <v>0.1537357006306692</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.563531763733977</v>
+        <v>0.606124636958711</v>
       </c>
       <c r="N8">
-        <v>2.297688829120574</v>
+        <v>1.528888184525044</v>
       </c>
       <c r="O8">
-        <v>1.988495149371744</v>
+        <v>1.987714481841323</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3416704910155488</v>
+        <v>0.1633766678113773</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08757868866305785</v>
+        <v>0.2382241711541511</v>
       </c>
       <c r="E9">
-        <v>0.04689300063384394</v>
+        <v>0.1602809269633898</v>
       </c>
       <c r="F9">
-        <v>0.9640416930537157</v>
+        <v>0.9594207496415095</v>
       </c>
       <c r="G9">
-        <v>0.8007412866899131</v>
+        <v>0.4994121276849341</v>
       </c>
       <c r="H9">
-        <v>0.4389152536225964</v>
+        <v>0.5703128052223576</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03549666541993979</v>
+        <v>0.1478018578164679</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.087706326769535</v>
+        <v>0.7719151335328434</v>
       </c>
       <c r="N9">
-        <v>2.778667302384264</v>
+        <v>1.67912223153931</v>
       </c>
       <c r="O9">
-        <v>2.569444249803269</v>
+        <v>2.100845148501691</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4042279878952684</v>
+        <v>0.1814657063261222</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.08992088731729808</v>
+        <v>0.2361090125121947</v>
       </c>
       <c r="E10">
-        <v>0.04522043289756006</v>
+        <v>0.1572962843150698</v>
       </c>
       <c r="F10">
-        <v>1.120831892392346</v>
+        <v>0.9871885606793711</v>
       </c>
       <c r="G10">
-        <v>0.9506411359997173</v>
+        <v>0.5320855005604699</v>
       </c>
       <c r="H10">
-        <v>0.501080801057924</v>
+        <v>0.5797167347012646</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03178217809742634</v>
+        <v>0.143928752475281</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.472583928706825</v>
+        <v>0.89310023300132</v>
       </c>
       <c r="N10">
-        <v>3.13779777231548</v>
+        <v>1.791788728889287</v>
       </c>
       <c r="O10">
-        <v>3.017964780938513</v>
+        <v>2.1902848345716</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4328846408342883</v>
+        <v>0.1897588163867709</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09118969675417787</v>
+        <v>0.2352520232532527</v>
       </c>
       <c r="E11">
-        <v>0.04466546504066393</v>
+        <v>0.1560325925843742</v>
       </c>
       <c r="F11">
-        <v>1.194444821826508</v>
+        <v>1.000440082938738</v>
       </c>
       <c r="G11">
-        <v>1.020628119670604</v>
+        <v>0.5472994562836675</v>
       </c>
       <c r="H11">
-        <v>0.5303392103716078</v>
+        <v>0.58430640341345</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03034988666292193</v>
+        <v>0.1422728537745197</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.647775647442444</v>
+        <v>0.9480819266081255</v>
       </c>
       <c r="N11">
-        <v>3.302598226143715</v>
+        <v>1.843519746742885</v>
       </c>
       <c r="O11">
-        <v>3.227845669803372</v>
+        <v>2.232354944450776</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4437679593385582</v>
+        <v>0.192908246638595</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09170123728290491</v>
+        <v>0.2349426173075813</v>
       </c>
       <c r="E12">
-        <v>0.04448692238220886</v>
+        <v>0.1555676049017976</v>
       </c>
       <c r="F12">
-        <v>1.222686364503787</v>
+        <v>1.005547364230182</v>
       </c>
       <c r="G12">
-        <v>1.04742165482989</v>
+        <v>0.5531112243174192</v>
       </c>
       <c r="H12">
-        <v>0.5415744117888295</v>
+        <v>0.5860892210660182</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02984723911921527</v>
+        <v>0.1416610909704215</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.714145274930573</v>
+        <v>0.9688796698089561</v>
       </c>
       <c r="N12">
-        <v>3.365224315082799</v>
+        <v>1.863175743631615</v>
       </c>
       <c r="O12">
-        <v>3.308264089003217</v>
+        <v>2.248485205284283</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4414225831930594</v>
+        <v>0.1922295635921074</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09158965566173549</v>
+        <v>0.2350085812497014</v>
       </c>
       <c r="E13">
-        <v>0.04452393554453771</v>
+        <v>0.1556671455454435</v>
       </c>
       <c r="F13">
-        <v>1.216587150563555</v>
+        <v>1.004443450431012</v>
       </c>
       <c r="G13">
-        <v>1.041637699007666</v>
+        <v>0.5518573045089994</v>
       </c>
       <c r="H13">
-        <v>0.5391475363499723</v>
+        <v>0.5857032668266129</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0299536812166874</v>
+        <v>0.1417921642417017</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.699849910826018</v>
+        <v>0.9644015361584053</v>
       </c>
       <c r="N13">
-        <v>3.351726657744337</v>
+        <v>1.858939546847608</v>
       </c>
       <c r="O13">
-        <v>3.290901005140427</v>
+        <v>2.245002400215185</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4337793652713628</v>
+        <v>0.1900177427154688</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09123114792127751</v>
+        <v>0.2352262653319812</v>
       </c>
       <c r="E14">
-        <v>0.04465013075738788</v>
+        <v>0.1559940661780761</v>
       </c>
       <c r="F14">
-        <v>1.196760715469082</v>
+        <v>1.000858473482481</v>
       </c>
       <c r="G14">
-        <v>1.02282641216982</v>
+        <v>0.5477765795406242</v>
       </c>
       <c r="H14">
-        <v>0.5312603275720846</v>
+        <v>0.5844521789727821</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03030772114700397</v>
+        <v>0.1422222169694756</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.653235271143345</v>
+        <v>0.9497934323531325</v>
       </c>
       <c r="N14">
-        <v>3.307746023857391</v>
+        <v>1.84513553565742</v>
       </c>
       <c r="O14">
-        <v>3.234442277622691</v>
+        <v>2.233677996446119</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4291018909671322</v>
+        <v>0.1886641047657349</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09101565407458168</v>
+        <v>0.235361571499169</v>
       </c>
       <c r="E15">
-        <v>0.04473160735559922</v>
+        <v>0.1561960791252162</v>
       </c>
       <c r="F15">
-        <v>1.184665248644365</v>
+        <v>0.9986741929828327</v>
       </c>
       <c r="G15">
-        <v>1.011342862338552</v>
+        <v>0.5452836081186518</v>
       </c>
       <c r="H15">
-        <v>0.5264499206296733</v>
+        <v>0.5836916864044781</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03052983828278855</v>
+        <v>0.1424876293277215</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.62468654819186</v>
+        <v>0.9408425513695136</v>
       </c>
       <c r="N15">
-        <v>3.280835667907695</v>
+        <v>1.836688785762675</v>
       </c>
       <c r="O15">
-        <v>3.199985347459886</v>
+        <v>2.226767424887697</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4023594692233132</v>
+        <v>0.1809250058408765</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.08984221317379593</v>
+        <v>0.2361671348388086</v>
       </c>
       <c r="E16">
-        <v>0.04526101298564633</v>
+        <v>0.1573807637356115</v>
       </c>
       <c r="F16">
-        <v>1.116070248225512</v>
+        <v>0.9863350223372152</v>
       </c>
       <c r="G16">
-        <v>0.9461062073284978</v>
+        <v>0.5310983018066651</v>
       </c>
       <c r="H16">
-        <v>0.4991896419731319</v>
+        <v>0.5794230607787796</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03188118987566035</v>
+        <v>0.1440391063659945</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.461137979109722</v>
+        <v>0.8895039719848796</v>
       </c>
       <c r="N16">
-        <v>3.127057632501135</v>
+        <v>1.788417422977147</v>
       </c>
       <c r="O16">
-        <v>3.004374619314859</v>
+        <v>2.187563317683185</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3860069386396106</v>
+        <v>0.1761936220116382</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08917569125987512</v>
+        <v>0.236688259812567</v>
       </c>
       <c r="E17">
-        <v>0.04563990796243722</v>
+        <v>0.1581316305812681</v>
       </c>
       <c r="F17">
-        <v>1.07460087794567</v>
+        <v>0.9789241523801451</v>
       </c>
       <c r="G17">
-        <v>0.9065682388781227</v>
+        <v>0.5224859967657949</v>
       </c>
       <c r="H17">
-        <v>0.4827273229913658</v>
+        <v>0.5768842336363065</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03277801242999701</v>
+        <v>0.1450180696015568</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.360842686309468</v>
+        <v>0.8579708536247921</v>
       </c>
       <c r="N17">
-        <v>3.033095767656874</v>
+        <v>1.758925466310046</v>
       </c>
       <c r="O17">
-        <v>2.885940184528209</v>
+        <v>2.163867421130476</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.376619927662631</v>
+        <v>0.1734783231632093</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.08881134796005341</v>
+        <v>0.236997900375691</v>
       </c>
       <c r="E18">
-        <v>0.0458770907498991</v>
+        <v>0.1585723592113837</v>
       </c>
       <c r="F18">
-        <v>1.050961807990944</v>
+        <v>0.9747199497155208</v>
       </c>
       <c r="G18">
-        <v>0.8839940693100914</v>
+        <v>0.5175654251587787</v>
       </c>
       <c r="H18">
-        <v>0.4733498206474422</v>
+        <v>0.5754533144230294</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03331790103590571</v>
+        <v>0.1455911173728257</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.303164900494849</v>
+        <v>0.8398201915304782</v>
       </c>
       <c r="N18">
-        <v>2.97918509797185</v>
+        <v>1.742007639551304</v>
       </c>
       <c r="O18">
-        <v>2.818363686970599</v>
+        <v>2.150368378234305</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3734447392908322</v>
+        <v>0.1725600190960535</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08869120072084513</v>
+        <v>0.2371044405901301</v>
       </c>
       <c r="E19">
-        <v>0.04596064429363977</v>
+        <v>0.1587231016417903</v>
       </c>
       <c r="F19">
-        <v>1.04299353266434</v>
+        <v>0.9733064950452928</v>
       </c>
       <c r="G19">
-        <v>0.8763785776393718</v>
+        <v>0.5159050671890384</v>
       </c>
       <c r="H19">
-        <v>0.4701899860750274</v>
+        <v>0.5749738708464207</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03350475061973235</v>
+        <v>0.1457868530871718</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.283637448188159</v>
+        <v>0.833672395320022</v>
       </c>
       <c r="N19">
-        <v>2.960954425260582</v>
+        <v>1.736287379449806</v>
       </c>
       <c r="O19">
-        <v>2.795573923669878</v>
+        <v>2.145820189672776</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3877457537740554</v>
+        <v>0.1766966596157147</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08924466199295011</v>
+        <v>0.2366317603017976</v>
       </c>
       <c r="E20">
-        <v>0.04559756726319009</v>
+        <v>0.1580507834311078</v>
       </c>
       <c r="F20">
-        <v>1.078993058834655</v>
+        <v>0.9797070141590041</v>
       </c>
       <c r="G20">
-        <v>0.9107596086735867</v>
+        <v>0.5233993750554475</v>
       </c>
       <c r="H20">
-        <v>0.4844702231254274</v>
+        <v>0.5771514589791309</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03268003494638094</v>
+        <v>0.1449128246740887</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.371518230124153</v>
+        <v>0.8613290321144689</v>
       </c>
       <c r="N20">
-        <v>3.043084231651449</v>
+        <v>1.762060276996635</v>
       </c>
       <c r="O20">
-        <v>2.898490743350806</v>
+        <v>2.166376411542103</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4360234790677566</v>
+        <v>0.1906671655138297</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09133559194940943</v>
+        <v>0.2351619160515455</v>
       </c>
       <c r="E21">
-        <v>0.04461218963762903</v>
+        <v>0.1558976738781119</v>
       </c>
       <c r="F21">
-        <v>1.20257398089457</v>
+        <v>1.001909046065734</v>
       </c>
       <c r="G21">
-        <v>1.028343573134052</v>
+        <v>0.5489738136786144</v>
       </c>
       <c r="H21">
-        <v>0.5335726422949847</v>
+        <v>0.584818437861955</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03020263030232684</v>
+        <v>0.1420954847076672</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.66692624374609</v>
+        <v>0.954084813734184</v>
       </c>
       <c r="N21">
-        <v>3.320658121011519</v>
+        <v>1.849188318905476</v>
       </c>
       <c r="O21">
-        <v>3.250999194365818</v>
+        <v>2.236998839334774</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4677618721673156</v>
+        <v>0.1998501017880301</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.09288416774160169</v>
+        <v>0.2342893977247797</v>
       </c>
       <c r="E22">
-        <v>0.0441534669751249</v>
+        <v>0.1545694530821784</v>
       </c>
       <c r="F22">
-        <v>1.285493362949353</v>
+        <v>1.016939425757073</v>
       </c>
       <c r="G22">
-        <v>1.106904609763234</v>
+        <v>0.5659830340347014</v>
       </c>
       <c r="H22">
-        <v>0.5665791071392334</v>
+        <v>0.5900904264960616</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02881646780213742</v>
+        <v>0.1403433348106518</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.860164531699894</v>
+        <v>1.014573414894244</v>
       </c>
       <c r="N22">
-        <v>3.50335680535639</v>
+        <v>1.906518611691126</v>
       </c>
       <c r="O22">
-        <v>3.486921647079612</v>
+        <v>2.284316027732302</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4508044126953052</v>
+        <v>0.1949442799805183</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.09204037271484822</v>
+        <v>0.2347470188653702</v>
       </c>
       <c r="E23">
-        <v>0.04438064748122983</v>
+        <v>0.1552711171703827</v>
       </c>
       <c r="F23">
-        <v>1.241027866874717</v>
+        <v>1.008869813462624</v>
       </c>
       <c r="G23">
-        <v>1.064806892262723</v>
+        <v>0.5568778664734992</v>
       </c>
       <c r="H23">
-        <v>0.5488739560128977</v>
+        <v>0.587252777023167</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02953403051199111</v>
+        <v>0.1412703176031904</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.757009298602753</v>
+        <v>0.9823021871278854</v>
       </c>
       <c r="N23">
-        <v>3.405724279513151</v>
+        <v>1.875885666033412</v>
       </c>
       <c r="O23">
-        <v>3.360463406750625</v>
+        <v>2.258955601521677</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3869595912126158</v>
+        <v>0.176469221231585</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08921342175136004</v>
+        <v>0.2366572724598655</v>
       </c>
       <c r="E24">
-        <v>0.04561664936938392</v>
+        <v>0.1580873062541954</v>
       </c>
       <c r="F24">
-        <v>1.077006726727504</v>
+        <v>0.9793529066551656</v>
       </c>
       <c r="G24">
-        <v>0.9088642046281166</v>
+        <v>0.5229863409344944</v>
       </c>
       <c r="H24">
-        <v>0.4836819884001073</v>
+        <v>0.5770305570410414</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03272425510121835</v>
+        <v>0.1449603740471481</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.366691869676131</v>
+        <v>0.8598108675611087</v>
       </c>
       <c r="N24">
-        <v>3.038568107815564</v>
+        <v>1.760642912132823</v>
       </c>
       <c r="O24">
-        <v>2.892815045203037</v>
+        <v>2.165241710603055</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.318789830972193</v>
+        <v>0.1567737604999309</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08688486392875916</v>
+        <v>0.2390964583580555</v>
       </c>
       <c r="E25">
-        <v>0.04767884157371149</v>
+        <v>0.1614632841919335</v>
       </c>
       <c r="F25">
-        <v>0.9081007943475186</v>
+        <v>0.9497438226178048</v>
       </c>
       <c r="G25">
-        <v>0.7469289727909683</v>
+        <v>0.4876896733852618</v>
       </c>
       <c r="H25">
-        <v>0.4167973243227863</v>
+        <v>0.5671262642298842</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03707577167368292</v>
+        <v>0.1493218371077276</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.945990721616823</v>
+        <v>0.727168609484778</v>
       </c>
       <c r="N25">
-        <v>2.647593569376113</v>
+        <v>1.638070420300863</v>
       </c>
       <c r="O25">
-        <v>2.408830417279461</v>
+        <v>2.06913270280009</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_211/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_211/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.142477488380834</v>
+        <v>0.2690787353637774</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2412187059015309</v>
+        <v>0.0857272068957684</v>
       </c>
       <c r="E2">
-        <v>0.1642394801235838</v>
+        <v>0.04975603440126797</v>
       </c>
       <c r="F2">
-        <v>0.9298502608834838</v>
+        <v>0.7893697980760521</v>
       </c>
       <c r="G2">
-        <v>0.4627726162836439</v>
+        <v>0.6319781148466319</v>
       </c>
       <c r="H2">
-        <v>0.5607971153087448</v>
+        <v>0.3699968398215816</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1528597318075597</v>
+        <v>0.04097129573093916</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6290983407645285</v>
+        <v>1.636032189871401</v>
       </c>
       <c r="N2">
-        <v>1.549373067681017</v>
+        <v>2.363537191645321</v>
       </c>
       <c r="O2">
-        <v>2.002617514970126</v>
+        <v>2.066634355394513</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329197786953671</v>
+        <v>0.2356351416346172</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2428608296157826</v>
+        <v>0.08526081153024023</v>
       </c>
       <c r="E3">
-        <v>0.1663019005649122</v>
+        <v>0.05148076486671194</v>
       </c>
       <c r="F3">
-        <v>0.9175535045836938</v>
+        <v>0.7118475139008353</v>
       </c>
       <c r="G3">
-        <v>0.4465487433260762</v>
+        <v>0.556241937793871</v>
       </c>
       <c r="H3">
-        <v>0.5571081219333536</v>
+        <v>0.3395763333786022</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.155460469515436</v>
+        <v>0.04400047713301092</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5624023235514954</v>
+        <v>1.425646931193725</v>
       </c>
       <c r="N3">
-        <v>1.490262922841652</v>
+        <v>2.173172071173809</v>
       </c>
       <c r="O3">
-        <v>1.960176423489713</v>
+        <v>1.842009313484198</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271170574123914</v>
+        <v>0.2152053870809425</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2439697654102346</v>
+        <v>0.08512231490003686</v>
       </c>
       <c r="E4">
-        <v>0.1676574136480324</v>
+        <v>0.052686282529117</v>
       </c>
       <c r="F4">
-        <v>0.9105867110871984</v>
+        <v>0.6655263722193041</v>
       </c>
       <c r="G4">
-        <v>0.4369124299199711</v>
+        <v>0.5106558406749713</v>
       </c>
       <c r="H4">
-        <v>0.5551391235319016</v>
+        <v>0.3214680423290304</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1571572748259129</v>
+        <v>0.04603924139178339</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5213437908738854</v>
+        <v>1.296254858735011</v>
       </c>
       <c r="N4">
-        <v>1.454474915804127</v>
+        <v>2.057275327521722</v>
       </c>
       <c r="O4">
-        <v>1.935414403037356</v>
+        <v>1.707212259460675</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.124769158632688</v>
+        <v>0.206904227876521</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2444469962207947</v>
+        <v>0.08510177923689355</v>
       </c>
       <c r="E5">
-        <v>0.1682322057337871</v>
+        <v>0.05321298366889327</v>
       </c>
       <c r="F5">
-        <v>0.9078943358713687</v>
+        <v>0.6469474077306074</v>
       </c>
       <c r="G5">
-        <v>0.4330671917606423</v>
+        <v>0.4922884350566648</v>
       </c>
       <c r="H5">
-        <v>0.5544112227279925</v>
+        <v>0.314222496608636</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1578738298574756</v>
+        <v>0.0469131530384832</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5045867486813052</v>
+        <v>1.243466143660498</v>
       </c>
       <c r="N5">
-        <v>1.44002040343787</v>
+        <v>2.01028651270633</v>
       </c>
       <c r="O5">
-        <v>1.925649586535371</v>
+        <v>1.653001982274588</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1243803105060834</v>
+        <v>0.2055272215188353</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2445277704435291</v>
+        <v>0.08510050129478586</v>
       </c>
       <c r="E6">
-        <v>0.1683290025555122</v>
+        <v>0.05330254272631141</v>
       </c>
       <c r="F6">
-        <v>0.9074561243617865</v>
+        <v>0.6438796601912244</v>
       </c>
       <c r="G6">
-        <v>0.4324336195655576</v>
+        <v>0.4892505871482342</v>
       </c>
       <c r="H6">
-        <v>0.5542948549545343</v>
+        <v>0.3130271851391342</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1579943277189955</v>
+        <v>0.04706081525153039</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5018027680710304</v>
+        <v>1.234696796175044</v>
       </c>
       <c r="N6">
-        <v>1.437628122213255</v>
+        <v>2.002498321346053</v>
       </c>
       <c r="O6">
-        <v>1.924047823620128</v>
+        <v>1.644042100384127</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1270853246820138</v>
+        <v>0.2150933398853141</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2439760989265096</v>
+        <v>0.08512189423364092</v>
       </c>
       <c r="E7">
-        <v>0.1676650747800874</v>
+        <v>0.05269324410925602</v>
       </c>
       <c r="F7">
-        <v>0.9105498070855802</v>
+        <v>0.6652746370201896</v>
       </c>
       <c r="G7">
-        <v>0.4368602413304075</v>
+        <v>0.5104073110360616</v>
       </c>
       <c r="H7">
-        <v>0.5551290051865152</v>
+        <v>0.3213697972190772</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1571668369874288</v>
+        <v>0.04605085517891716</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5211179001866242</v>
+        <v>1.29554318417091</v>
       </c>
       <c r="N7">
-        <v>1.45427945038179</v>
+        <v>2.056640658614754</v>
       </c>
       <c r="O7">
-        <v>1.935281392027406</v>
+        <v>1.706478326139546</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391684742673078</v>
+        <v>0.2575242758928482</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2417640274806416</v>
+        <v>0.08553491530246049</v>
       </c>
       <c r="E8">
-        <v>0.1649320847175773</v>
+        <v>0.05031944854249204</v>
       </c>
       <c r="F8">
-        <v>0.9254891943024006</v>
+        <v>0.7623600055596143</v>
       </c>
       <c r="G8">
-        <v>0.4571110378262517</v>
+        <v>0.6056610496836896</v>
       </c>
       <c r="H8">
-        <v>0.5594637221571617</v>
+        <v>0.3593835871610054</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1537357006306692</v>
+        <v>0.04197749029019171</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.606124636958711</v>
+        <v>1.563531763733977</v>
       </c>
       <c r="N8">
-        <v>1.528888184525044</v>
+        <v>2.297688829120602</v>
       </c>
       <c r="O8">
-        <v>1.987714481841323</v>
+        <v>1.988495149371744</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1633766678113773</v>
+        <v>0.3416704910154778</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2382241711541511</v>
+        <v>0.08757868866295837</v>
       </c>
       <c r="E9">
-        <v>0.1602809269633898</v>
+        <v>0.04689300063385993</v>
       </c>
       <c r="F9">
-        <v>0.9594207496415095</v>
+        <v>0.9640416930537157</v>
       </c>
       <c r="G9">
-        <v>0.4994121276849341</v>
+        <v>0.8007412866898136</v>
       </c>
       <c r="H9">
-        <v>0.5703128052223576</v>
+        <v>0.4389152536225964</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1478018578164679</v>
+        <v>0.03549666541987406</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7719151335328434</v>
+        <v>2.087706326769549</v>
       </c>
       <c r="N9">
-        <v>1.67912223153931</v>
+        <v>2.778667302384349</v>
       </c>
       <c r="O9">
-        <v>2.100845148501691</v>
+        <v>2.569444249803269</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1814657063261222</v>
+        <v>0.4042279878955526</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2361090125121947</v>
+        <v>0.0899208873173265</v>
       </c>
       <c r="E10">
-        <v>0.1572962843150698</v>
+        <v>0.04522043289759381</v>
       </c>
       <c r="F10">
-        <v>0.9871885606793711</v>
+        <v>1.120831892392331</v>
       </c>
       <c r="G10">
-        <v>0.5320855005604699</v>
+        <v>0.9506411359997315</v>
       </c>
       <c r="H10">
-        <v>0.5797167347012646</v>
+        <v>0.5010808010580234</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.143928752475281</v>
+        <v>0.03178217809747252</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.89310023300132</v>
+        <v>2.472583928706825</v>
       </c>
       <c r="N10">
-        <v>1.791788728889287</v>
+        <v>3.137797772315423</v>
       </c>
       <c r="O10">
-        <v>2.1902848345716</v>
+        <v>3.017964780938485</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1897588163867709</v>
+        <v>0.4328846408345015</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2352520232532527</v>
+        <v>0.09118969675411392</v>
       </c>
       <c r="E11">
-        <v>0.1560325925843742</v>
+        <v>0.04466546504066393</v>
       </c>
       <c r="F11">
-        <v>1.000440082938738</v>
+        <v>1.194444821826494</v>
       </c>
       <c r="G11">
-        <v>0.5472994562836675</v>
+        <v>1.020628119670533</v>
       </c>
       <c r="H11">
-        <v>0.58430640341345</v>
+        <v>0.5303392103715936</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1422728537745197</v>
+        <v>0.03034988666296634</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9480819266081255</v>
+        <v>2.647775647442444</v>
       </c>
       <c r="N11">
-        <v>1.843519746742885</v>
+        <v>3.302598226143687</v>
       </c>
       <c r="O11">
-        <v>2.232354944450776</v>
+        <v>3.227845669803372</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.192908246638595</v>
+        <v>0.443767959338544</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2349426173075813</v>
+        <v>0.09170123728297597</v>
       </c>
       <c r="E12">
-        <v>0.1555676049017976</v>
+        <v>0.04448692238220886</v>
       </c>
       <c r="F12">
-        <v>1.005547364230182</v>
+        <v>1.222686364503787</v>
       </c>
       <c r="G12">
-        <v>0.5531112243174192</v>
+        <v>1.04742165482989</v>
       </c>
       <c r="H12">
-        <v>0.5860892210660182</v>
+        <v>0.5415744117888295</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1416610909704215</v>
+        <v>0.02984723911925435</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9688796698089561</v>
+        <v>2.714145274930544</v>
       </c>
       <c r="N12">
-        <v>1.863175743631615</v>
+        <v>3.365224315082656</v>
       </c>
       <c r="O12">
-        <v>2.248485205284283</v>
+        <v>3.308264089003217</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1922295635921074</v>
+        <v>0.4414225831930878</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2350085812497014</v>
+        <v>0.09158965566182076</v>
       </c>
       <c r="E13">
-        <v>0.1556671455454435</v>
+        <v>0.04452393554453771</v>
       </c>
       <c r="F13">
-        <v>1.004443450431012</v>
+        <v>1.216587150563555</v>
       </c>
       <c r="G13">
-        <v>0.5518573045089994</v>
+        <v>1.041637699007651</v>
       </c>
       <c r="H13">
-        <v>0.5857032668266129</v>
+        <v>0.5391475363500859</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1417921642417017</v>
+        <v>0.02995368121663233</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9644015361584053</v>
+        <v>2.699849910826018</v>
       </c>
       <c r="N13">
-        <v>1.858939546847608</v>
+        <v>3.351726657744251</v>
       </c>
       <c r="O13">
-        <v>2.245002400215185</v>
+        <v>3.29090100514037</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1900177427154688</v>
+        <v>0.4337793652709649</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2352262653319812</v>
+        <v>0.09123114792090092</v>
       </c>
       <c r="E14">
-        <v>0.1559940661780761</v>
+        <v>0.0446501307573719</v>
       </c>
       <c r="F14">
-        <v>1.000858473482481</v>
+        <v>1.196760715469068</v>
       </c>
       <c r="G14">
-        <v>0.5477765795406242</v>
+        <v>1.022826412169863</v>
       </c>
       <c r="H14">
-        <v>0.5844521789727821</v>
+        <v>0.5312603275721983</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1422222169694756</v>
+        <v>0.03030772114705016</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9497934323531325</v>
+        <v>2.653235271143345</v>
       </c>
       <c r="N14">
-        <v>1.84513553565742</v>
+        <v>3.307746023857362</v>
       </c>
       <c r="O14">
-        <v>2.233677996446119</v>
+        <v>3.234442277622747</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1886641047657349</v>
+        <v>0.4291018909671038</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.235361571499169</v>
+        <v>0.09101565407439693</v>
       </c>
       <c r="E15">
-        <v>0.1561960791252162</v>
+        <v>0.04473160735559745</v>
       </c>
       <c r="F15">
-        <v>0.9986741929828327</v>
+        <v>1.18466524864435</v>
       </c>
       <c r="G15">
-        <v>0.5452836081186518</v>
+        <v>1.011342862338509</v>
       </c>
       <c r="H15">
-        <v>0.5836916864044781</v>
+        <v>0.5264499206296733</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1424876293277215</v>
+        <v>0.03052983828279565</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9408425513695136</v>
+        <v>2.624686548191832</v>
       </c>
       <c r="N15">
-        <v>1.836688785762675</v>
+        <v>3.280835667907638</v>
       </c>
       <c r="O15">
-        <v>2.226767424887697</v>
+        <v>3.199985347459858</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1809250058408765</v>
+        <v>0.4023594692230432</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2361671348388086</v>
+        <v>0.08984221317379593</v>
       </c>
       <c r="E16">
-        <v>0.1573807637356115</v>
+        <v>0.04526101298565877</v>
       </c>
       <c r="F16">
-        <v>0.9863350223372152</v>
+        <v>1.116070248225526</v>
       </c>
       <c r="G16">
-        <v>0.5310983018066651</v>
+        <v>0.9461062073284552</v>
       </c>
       <c r="H16">
-        <v>0.5794230607787796</v>
+        <v>0.4991896419731319</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1440391063659945</v>
+        <v>0.03188118987560529</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8895039719848796</v>
+        <v>2.461137979109694</v>
       </c>
       <c r="N16">
-        <v>1.788417422977147</v>
+        <v>3.12705763250105</v>
       </c>
       <c r="O16">
-        <v>2.187563317683185</v>
+        <v>3.004374619314945</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1761936220116382</v>
+        <v>0.3860069386396674</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.236688259812567</v>
+        <v>0.08917569125991065</v>
       </c>
       <c r="E17">
-        <v>0.1581316305812681</v>
+        <v>0.04563990796244966</v>
       </c>
       <c r="F17">
-        <v>0.9789241523801451</v>
+        <v>1.074600877945684</v>
       </c>
       <c r="G17">
-        <v>0.5224859967657949</v>
+        <v>0.9065682388780942</v>
       </c>
       <c r="H17">
-        <v>0.5768842336363065</v>
+        <v>0.4827273229913658</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1450180696015568</v>
+        <v>0.0327780124299899</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8579708536247921</v>
+        <v>2.360842686309468</v>
       </c>
       <c r="N17">
-        <v>1.758925466310046</v>
+        <v>3.033095767656761</v>
       </c>
       <c r="O17">
-        <v>2.163867421130476</v>
+        <v>2.885940184528295</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1734783231632093</v>
+        <v>0.3766199276620625</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.236997900375691</v>
+        <v>0.08881134795997525</v>
       </c>
       <c r="E18">
-        <v>0.1585723592113837</v>
+        <v>0.04587709074990798</v>
       </c>
       <c r="F18">
-        <v>0.9747199497155208</v>
+        <v>1.050961807990944</v>
       </c>
       <c r="G18">
-        <v>0.5175654251587787</v>
+        <v>0.8839940693101482</v>
       </c>
       <c r="H18">
-        <v>0.5754533144230294</v>
+        <v>0.4733498206474422</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1455911173728257</v>
+        <v>0.03331790103595367</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8398201915304782</v>
+        <v>2.303164900494892</v>
       </c>
       <c r="N18">
-        <v>1.742007639551304</v>
+        <v>2.979185097971936</v>
       </c>
       <c r="O18">
-        <v>2.150368378234305</v>
+        <v>2.818363686970656</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1725600190960535</v>
+        <v>0.3734447392908322</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2371044405901301</v>
+        <v>0.08869120072071723</v>
       </c>
       <c r="E19">
-        <v>0.1587231016417903</v>
+        <v>0.04596064429365754</v>
       </c>
       <c r="F19">
-        <v>0.9733064950452928</v>
+        <v>1.042993532664326</v>
       </c>
       <c r="G19">
-        <v>0.5159050671890384</v>
+        <v>0.8763785776394428</v>
       </c>
       <c r="H19">
-        <v>0.5749738708464207</v>
+        <v>0.4701899860750274</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1457868530871718</v>
+        <v>0.03350475061973768</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.833672395320022</v>
+        <v>2.283637448188202</v>
       </c>
       <c r="N19">
-        <v>1.736287379449806</v>
+        <v>2.960954425260695</v>
       </c>
       <c r="O19">
-        <v>2.145820189672776</v>
+        <v>2.795573923669878</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1766966596157147</v>
+        <v>0.387745753773828</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2366317603017976</v>
+        <v>0.08924466199302827</v>
       </c>
       <c r="E20">
-        <v>0.1580507834311078</v>
+        <v>0.04559756726320963</v>
       </c>
       <c r="F20">
-        <v>0.9797070141590041</v>
+        <v>1.078993058834655</v>
       </c>
       <c r="G20">
-        <v>0.5233993750554475</v>
+        <v>0.9107596086735583</v>
       </c>
       <c r="H20">
-        <v>0.5771514589791309</v>
+        <v>0.4844702231253137</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1449128246740887</v>
+        <v>0.03268003494642002</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8613290321144689</v>
+        <v>2.371518230124138</v>
       </c>
       <c r="N20">
-        <v>1.762060276996635</v>
+        <v>3.043084231651449</v>
       </c>
       <c r="O20">
-        <v>2.166376411542103</v>
+        <v>2.898490743350891</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1906671655138297</v>
+        <v>0.4360234790682114</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2351619160515455</v>
+        <v>0.09133559194940233</v>
       </c>
       <c r="E21">
-        <v>0.1558976738781119</v>
+        <v>0.04461218963762903</v>
       </c>
       <c r="F21">
-        <v>1.001909046065734</v>
+        <v>1.202573980894584</v>
       </c>
       <c r="G21">
-        <v>0.5489738136786144</v>
+        <v>1.028343573133995</v>
       </c>
       <c r="H21">
-        <v>0.584818437861955</v>
+        <v>0.5335726422949847</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1420954847076672</v>
+        <v>0.03020263030233039</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.954084813734184</v>
+        <v>2.666926243746104</v>
       </c>
       <c r="N21">
-        <v>1.849188318905476</v>
+        <v>3.320658121011519</v>
       </c>
       <c r="O21">
-        <v>2.236998839334774</v>
+        <v>3.250999194365875</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1998501017880301</v>
+        <v>0.4677618721673866</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2342893977247797</v>
+        <v>0.09288416774160879</v>
       </c>
       <c r="E22">
-        <v>0.1545694530821784</v>
+        <v>0.04415346697512312</v>
       </c>
       <c r="F22">
-        <v>1.016939425757073</v>
+        <v>1.285493362949367</v>
       </c>
       <c r="G22">
-        <v>0.5659830340347014</v>
+        <v>1.106904609763205</v>
       </c>
       <c r="H22">
-        <v>0.5900904264960616</v>
+        <v>0.5665791071391482</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1403433348106518</v>
+        <v>0.02881646780208946</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.014573414894244</v>
+        <v>2.86016453169988</v>
       </c>
       <c r="N22">
-        <v>1.906518611691126</v>
+        <v>3.503356805356447</v>
       </c>
       <c r="O22">
-        <v>2.284316027732302</v>
+        <v>3.486921647079555</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1949442799805183</v>
+        <v>0.4508044126956605</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2347470188653702</v>
+        <v>0.09204037271474164</v>
       </c>
       <c r="E23">
-        <v>0.1552711171703827</v>
+        <v>0.04438064748125115</v>
       </c>
       <c r="F23">
-        <v>1.008869813462624</v>
+        <v>1.241027866874703</v>
       </c>
       <c r="G23">
-        <v>0.5568778664734992</v>
+        <v>1.06480689226278</v>
       </c>
       <c r="H23">
-        <v>0.587252777023167</v>
+        <v>0.5488739560128977</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1412703176031904</v>
+        <v>0.02953403051198755</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9823021871278854</v>
+        <v>2.757009298602739</v>
       </c>
       <c r="N23">
-        <v>1.875885666033412</v>
+        <v>3.405724279513265</v>
       </c>
       <c r="O23">
-        <v>2.258955601521677</v>
+        <v>3.360463406750682</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.176469221231585</v>
+        <v>0.3869595912123316</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2366572724598655</v>
+        <v>0.08921342175123925</v>
       </c>
       <c r="E24">
-        <v>0.1580873062541954</v>
+        <v>0.04561664936936793</v>
       </c>
       <c r="F24">
-        <v>0.9793529066551656</v>
+        <v>1.077006726727475</v>
       </c>
       <c r="G24">
-        <v>0.5229863409344944</v>
+        <v>0.9088642046281734</v>
       </c>
       <c r="H24">
-        <v>0.5770305570410414</v>
+        <v>0.4836819883999937</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1449603740471481</v>
+        <v>0.03272425510120236</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8598108675611087</v>
+        <v>2.366691869676131</v>
       </c>
       <c r="N24">
-        <v>1.760642912132823</v>
+        <v>3.038568107815593</v>
       </c>
       <c r="O24">
-        <v>2.165241710603055</v>
+        <v>2.892815045203037</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1567737604999309</v>
+        <v>0.3187898309720936</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2390964583580555</v>
+        <v>0.08688486392859573</v>
       </c>
       <c r="E25">
-        <v>0.1614632841919335</v>
+        <v>0.04767884157370972</v>
       </c>
       <c r="F25">
-        <v>0.9497438226178048</v>
+        <v>0.9081007943475328</v>
       </c>
       <c r="G25">
-        <v>0.4876896733852618</v>
+        <v>0.7469289727909114</v>
       </c>
       <c r="H25">
-        <v>0.5671262642298842</v>
+        <v>0.4167973243228857</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1493218371077276</v>
+        <v>0.03707577167358522</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.727168609484778</v>
+        <v>1.945990721616838</v>
       </c>
       <c r="N25">
-        <v>1.638070420300863</v>
+        <v>2.647593569375999</v>
       </c>
       <c r="O25">
-        <v>2.06913270280009</v>
+        <v>2.408830417279489</v>
       </c>
     </row>
   </sheetData>
